--- a/templates/IssueBluePrintPilotTest.xlsx
+++ b/templates/IssueBluePrintPilotTest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephankuche/CreateJiraIssues/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA6A0662-1B3E-ED4F-A347-6DFE22F63AA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C522D7-E5E9-014C-B93B-35EF857160B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">alles!$A$1:$G$173</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="213">
   <si>
     <t>Summary</t>
   </si>
@@ -873,27 +873,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="178">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="176">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2952,10 +2932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F728FE19-0465-1C4B-A5E0-C11743CC7188}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2991,104 +2971,114 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
+      <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="10"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
+      <c r="A3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="A5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="10"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="4">
-        <v>5</v>
-      </c>
+      <c r="G5" s="4"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>170</v>
+        <v>66</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>3</v>
@@ -3097,182 +3087,168 @@
         <v>94</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>157</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="10"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="4">
-        <v>1</v>
-      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>193</v>
+      </c>
       <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>162</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="4"/>
-      <c r="G12" s="4">
-        <v>14</v>
-      </c>
+      <c r="G12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>162</v>
+      <c r="A13" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>193</v>
-      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="4">
-        <v>21</v>
-      </c>
+      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>3</v>
@@ -3284,12 +3260,12 @@
       <c r="E18" s="1"/>
       <c r="F18" s="4"/>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>3</v>
@@ -3298,7 +3274,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4">
         <v>2</v>
@@ -3306,7 +3282,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>191</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>3</v>
@@ -3314,39 +3290,35 @@
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>188</v>
+      <c r="A21" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -3356,23 +3328,25 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>3</v>
@@ -3380,69 +3354,75 @@
       <c r="C24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="D24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>148</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A25" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="10"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4">
-        <v>14</v>
-      </c>
+      <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>148</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="12" t="s">
+      <c r="C26" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D26" s="12" t="s">
         <v>148</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="F26" s="4"/>
       <c r="G26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-    </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>148</v>
+      <c r="A28" s="16" t="s">
+        <v>159</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -3450,20 +3430,20 @@
       <c r="C28" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>36</v>
+      <c r="D28" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
+      <c r="A29" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>3</v>
@@ -3471,20 +3451,20 @@
       <c r="C29" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="D29" s="1" t="s">
-        <v>36</v>
+      <c r="D29" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="4">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>3</v>
@@ -3493,10 +3473,10 @@
         <v>150</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>39</v>
+        <v>160</v>
+      </c>
+      <c r="E30" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="4">
@@ -3504,97 +3484,93 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>160</v>
-      </c>
+      <c r="A31" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="4">
-        <v>21</v>
-      </c>
+      <c r="G31" s="4"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
-        <v>175</v>
+      <c r="A32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>160</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>50</v>
-      </c>
+      <c r="C32" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4">
-        <v>1</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="10" t="s">
-        <v>156</v>
-      </c>
+      <c r="C33" s="10"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>42</v>
+      <c r="A34" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
+      <c r="D35" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4">
+        <v>1</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>50</v>
+      <c r="A36" s="1" t="s">
+        <v>151</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>3</v>
@@ -3602,20 +3578,20 @@
       <c r="C36" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>176</v>
+      <c r="D36" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4">
-        <v>2</v>
+        <v>21</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
-        <v>176</v>
+      <c r="A37" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>3</v>
@@ -3623,20 +3599,22 @@
       <c r="C37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>176</v>
+      <c r="D37" s="1" t="s">
+        <v>177</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="F37" s="4"/>
+        <v>56</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>163</v>
+      </c>
       <c r="G37" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>151</v>
+        <v>56</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>3</v>
@@ -3644,234 +3622,186 @@
       <c r="C38" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>161</v>
-      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="G39" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:G40" xr:uid="{F728FE19-0465-1C4B-A5E0-C11743CC7188}"/>
+  <autoFilter ref="A1:G38" xr:uid="{F728FE19-0465-1C4B-A5E0-C11743CC7188}"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="177" priority="165"/>
-    <cfRule type="duplicateValues" dxfId="176" priority="166"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A3">
-    <cfRule type="duplicateValues" dxfId="175" priority="89"/>
-    <cfRule type="duplicateValues" dxfId="174" priority="90"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A13">
+    <cfRule type="duplicateValues" dxfId="175" priority="165"/>
+    <cfRule type="duplicateValues" dxfId="174" priority="166"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
     <cfRule type="duplicateValues" dxfId="173" priority="31"/>
     <cfRule type="duplicateValues" dxfId="172" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5">
-    <cfRule type="duplicateValues" dxfId="171" priority="161"/>
-    <cfRule type="duplicateValues" dxfId="170" priority="162"/>
+  <conditionalFormatting sqref="A12:A20 A2:A10">
+    <cfRule type="duplicateValues" dxfId="171" priority="209"/>
+    <cfRule type="duplicateValues" dxfId="170" priority="210"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="169" priority="171"/>
+    <cfRule type="duplicateValues" dxfId="168" priority="172"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37:A38 A27:A35 A21:A25">
+    <cfRule type="duplicateValues" dxfId="167" priority="169"/>
+    <cfRule type="duplicateValues" dxfId="166" priority="170"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3">
+    <cfRule type="duplicateValues" dxfId="165" priority="161"/>
+    <cfRule type="duplicateValues" dxfId="164" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6">
+    <cfRule type="duplicateValues" dxfId="163" priority="157"/>
+    <cfRule type="duplicateValues" dxfId="162" priority="158"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7">
+    <cfRule type="duplicateValues" dxfId="161" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="160" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D8">
-    <cfRule type="duplicateValues" dxfId="169" priority="157"/>
-    <cfRule type="duplicateValues" dxfId="168" priority="158"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
-    <cfRule type="duplicateValues" dxfId="167" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="166" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="159" priority="153"/>
+    <cfRule type="duplicateValues" dxfId="158" priority="154"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D10">
-    <cfRule type="duplicateValues" dxfId="165" priority="153"/>
-    <cfRule type="duplicateValues" dxfId="164" priority="154"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="duplicateValues" dxfId="163" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="162" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="157" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="156" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="duplicateValues" dxfId="155" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="154" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="duplicateValues" dxfId="161" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="160" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
-    <cfRule type="duplicateValues" dxfId="159" priority="143"/>
-    <cfRule type="duplicateValues" dxfId="158" priority="144"/>
+    <cfRule type="duplicateValues" dxfId="153" priority="143"/>
+    <cfRule type="duplicateValues" dxfId="152" priority="144"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14">
+    <cfRule type="duplicateValues" dxfId="151" priority="137"/>
+    <cfRule type="duplicateValues" dxfId="150" priority="138"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="duplicateValues" dxfId="157" priority="137"/>
-    <cfRule type="duplicateValues" dxfId="156" priority="138"/>
+    <cfRule type="duplicateValues" dxfId="149" priority="141"/>
+    <cfRule type="duplicateValues" dxfId="148" priority="142"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="duplicateValues" dxfId="147" priority="133"/>
+    <cfRule type="duplicateValues" dxfId="146" priority="134"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="duplicateValues" dxfId="155" priority="141"/>
-    <cfRule type="duplicateValues" dxfId="154" priority="142"/>
+    <cfRule type="duplicateValues" dxfId="145" priority="131"/>
+    <cfRule type="duplicateValues" dxfId="144" priority="132"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19">
-    <cfRule type="duplicateValues" dxfId="153" priority="133"/>
-    <cfRule type="duplicateValues" dxfId="152" priority="134"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20">
-    <cfRule type="duplicateValues" dxfId="151" priority="131"/>
-    <cfRule type="duplicateValues" dxfId="150" priority="132"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D21">
-    <cfRule type="duplicateValues" dxfId="149" priority="129"/>
-    <cfRule type="duplicateValues" dxfId="148" priority="130"/>
+    <cfRule type="duplicateValues" dxfId="143" priority="129"/>
+    <cfRule type="duplicateValues" dxfId="142" priority="130"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24">
+    <cfRule type="duplicateValues" dxfId="141" priority="115"/>
+    <cfRule type="duplicateValues" dxfId="140" priority="116"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="duplicateValues" dxfId="147" priority="115"/>
-    <cfRule type="duplicateValues" dxfId="146" priority="116"/>
+    <cfRule type="duplicateValues" dxfId="139" priority="99"/>
+    <cfRule type="duplicateValues" dxfId="138" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27">
+    <cfRule type="duplicateValues" dxfId="137" priority="111"/>
+    <cfRule type="duplicateValues" dxfId="136" priority="112"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="duplicateValues" dxfId="145" priority="99"/>
-    <cfRule type="duplicateValues" dxfId="144" priority="100"/>
+    <cfRule type="duplicateValues" dxfId="135" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="134" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="duplicateValues" dxfId="143" priority="111"/>
-    <cfRule type="duplicateValues" dxfId="142" priority="112"/>
+    <cfRule type="duplicateValues" dxfId="133" priority="109"/>
+    <cfRule type="duplicateValues" dxfId="132" priority="110"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D30">
-    <cfRule type="duplicateValues" dxfId="141" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="140" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="duplicateValues" dxfId="139" priority="109"/>
-    <cfRule type="duplicateValues" dxfId="138" priority="110"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="duplicateValues" dxfId="137" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="136" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="131" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="130" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="duplicateValues" dxfId="129" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="128" priority="28"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="duplicateValues" dxfId="135" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="134" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D39">
-    <cfRule type="duplicateValues" dxfId="133" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="132" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5">
-    <cfRule type="duplicateValues" dxfId="131" priority="159"/>
-    <cfRule type="duplicateValues" dxfId="130" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="duplicateValues" dxfId="129" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="128" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9:E10">
-    <cfRule type="duplicateValues" dxfId="127" priority="151"/>
-    <cfRule type="duplicateValues" dxfId="126" priority="152"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E12">
-    <cfRule type="duplicateValues" dxfId="125" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="124" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="127" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="126" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3">
+    <cfRule type="duplicateValues" dxfId="125" priority="159"/>
+    <cfRule type="duplicateValues" dxfId="124" priority="160"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="duplicateValues" dxfId="123" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="122" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7:E8">
+    <cfRule type="duplicateValues" dxfId="121" priority="151"/>
+    <cfRule type="duplicateValues" dxfId="120" priority="152"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="duplicateValues" dxfId="119" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="118" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="duplicateValues" dxfId="117" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="116" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="duplicateValues" dxfId="123" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="122" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="duplicateValues" dxfId="121" priority="145"/>
-    <cfRule type="duplicateValues" dxfId="120" priority="146"/>
+    <cfRule type="duplicateValues" dxfId="115" priority="145"/>
+    <cfRule type="duplicateValues" dxfId="114" priority="146"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="duplicateValues" dxfId="113" priority="135"/>
+    <cfRule type="duplicateValues" dxfId="112" priority="136"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="duplicateValues" dxfId="119" priority="135"/>
-    <cfRule type="duplicateValues" dxfId="118" priority="136"/>
+    <cfRule type="duplicateValues" dxfId="111" priority="139"/>
+    <cfRule type="duplicateValues" dxfId="110" priority="140"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="duplicateValues" dxfId="109" priority="127"/>
+    <cfRule type="duplicateValues" dxfId="108" priority="128"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="duplicateValues" dxfId="117" priority="139"/>
-    <cfRule type="duplicateValues" dxfId="116" priority="140"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="duplicateValues" dxfId="115" priority="127"/>
-    <cfRule type="duplicateValues" dxfId="114" priority="128"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="duplicateValues" dxfId="113" priority="125"/>
-    <cfRule type="duplicateValues" dxfId="112" priority="126"/>
+    <cfRule type="duplicateValues" dxfId="107" priority="125"/>
+    <cfRule type="duplicateValues" dxfId="106" priority="126"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="duplicateValues" dxfId="105" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="104" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="duplicateValues" dxfId="103" priority="101"/>
+    <cfRule type="duplicateValues" dxfId="102" priority="102"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="duplicateValues" dxfId="101" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="100" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="duplicateValues" dxfId="111" priority="101"/>
-    <cfRule type="duplicateValues" dxfId="110" priority="102"/>
+    <cfRule type="duplicateValues" dxfId="99" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="98" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="duplicateValues" dxfId="109" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="108" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="duplicateValues" dxfId="107" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="106" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="duplicateValues" dxfId="105" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="104" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="97" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="96" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="duplicateValues" dxfId="95" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="94" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="duplicateValues" dxfId="103" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="102" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="duplicateValues" dxfId="101" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="100" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="duplicateValues" dxfId="99" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="98" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="duplicateValues" dxfId="97" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="96" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A39:A40 A29:A37 A23:A27">
-    <cfRule type="duplicateValues" dxfId="95" priority="169"/>
-    <cfRule type="duplicateValues" dxfId="94" priority="170"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A28">
-    <cfRule type="duplicateValues" dxfId="93" priority="171"/>
-    <cfRule type="duplicateValues" dxfId="92" priority="172"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A14:A22 A4:A12">
-    <cfRule type="duplicateValues" dxfId="91" priority="209"/>
-    <cfRule type="duplicateValues" dxfId="90" priority="210"/>
+    <cfRule type="duplicateValues" dxfId="93" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="92" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="duplicateValues" dxfId="91" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="90" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -6840,37 +6770,37 @@
     <cfRule type="duplicateValues" dxfId="17" priority="55"/>
     <cfRule type="duplicateValues" dxfId="16" priority="56"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E122">
+    <cfRule type="duplicateValues" dxfId="15" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E133">
-    <cfRule type="duplicateValues" dxfId="15" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E138">
-    <cfRule type="duplicateValues" dxfId="13" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E146">
-    <cfRule type="duplicateValues" dxfId="11" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E147">
-    <cfRule type="duplicateValues" dxfId="9" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E162">
-    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E168">
-    <cfRule type="duplicateValues" dxfId="5" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E171">
-    <cfRule type="duplicateValues" dxfId="3" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E122">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
